--- a/docs/assets/mkdocs_telnum_pokrovka.xlsx
+++ b/docs/assets/mkdocs_telnum_pokrovka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\_Общества\КН Холдинг\ИТО\Связь\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\share\mkdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,17 +13,20 @@
   </bookViews>
   <sheets>
     <sheet name="Pokrovka" sheetId="5" r:id="rId1"/>
+    <sheet name="icons" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pokrovka!$B$1:$H$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Pokrovka!$A$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">icons!$B$1:$H$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pokrovka!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">icons!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Pokrovka!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="99">
   <si>
     <t>Пользователь</t>
   </si>
@@ -272,13 +275,61 @@
   </si>
   <si>
     <t>dmitriy.v.kozlov@lukoil.com</t>
+  </si>
+  <si>
+    <t>olga.yu.bespalova@lukoil.com</t>
+  </si>
+  <si>
+    <t>venera.vasileva@lukoil.com</t>
+  </si>
+  <si>
+    <t>yuliya.e.golysheva@lukoil.com</t>
+  </si>
+  <si>
+    <t>anastasiya.al.gritsenko@lukoil.com</t>
+  </si>
+  <si>
+    <t>sergey.kuzin@lukoil.com</t>
+  </si>
+  <si>
+    <t>elena.v.kuzina@lukoil.com</t>
+  </si>
+  <si>
+    <t>liliya.markelova@lukoil.com</t>
+  </si>
+  <si>
+    <t>yuliya.v.medvedeva@lukoil.com</t>
+  </si>
+  <si>
+    <t>elena.e.medvedeva@lukoil.com</t>
+  </si>
+  <si>
+    <t>valeriy.mulyukin@lukoil.com</t>
+  </si>
+  <si>
+    <t>lyubov.a.petrukhina@lukoil.com</t>
+  </si>
+  <si>
+    <t>irina.podust@lukoil.com</t>
+  </si>
+  <si>
+    <t>irina.e.reshetnikova@lukoil.com</t>
+  </si>
+  <si>
+    <t>olga.stepanova@lukoil.com</t>
+  </si>
+  <si>
+    <t>irina.v.chebotareva@lukoil.com</t>
+  </si>
+  <si>
+    <t>olga.yur.shadrina@lukoil.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +354,14 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -370,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +793,583 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>66835</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>74177</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17021</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22583</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>66386</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>52396</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2">
+        <v>22586</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>78834</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>66044</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>66089</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>74223</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22065</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12030</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
+        <v>21889</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>37677</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>66027</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>66810</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>66806</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>66060</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>52370</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>53001</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22267</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>78981</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2">
+        <v>22584</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>66077</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>74920</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>53004</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>66022</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>78985</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>66024</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F26">
+    <filterColumn colId="1" showButton="0"/>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F11" r:id="rId6"/>
+    <hyperlink ref="F12" r:id="rId7"/>
+    <hyperlink ref="F13" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13"/>
+    <hyperlink ref="F19" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F22" r:id="rId16"/>
+    <hyperlink ref="F23" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.98425196850393704" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId18"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,полужирный"&amp;12Телефонные номера ООО "К.Н.Холдинг"</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
